--- a/medicine/Hématologie/Normoblaste/Normoblaste.xlsx
+++ b/medicine/Hématologie/Normoblaste/Normoblaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un normoblaste (ou érythroblaste) est une forme jeune de globule rouge qui possède encore son noyau cellulaire. C'est le précurseur immédiat des érythrocytes normaux (normocytes).
 </t>
@@ -511,18 +523,160 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a quatre stades de développement d'un normoblaste.
-Pronormoblaste
-Le noyau apparaît rond ou ovale et occupe environ les 8/10e de la cellule. On observe un fin réseau chromatinien pourpre après coloration au MGG. Le cytoplasme a un diamètre compris entre 20 et 25 µm et apparaît très basophile, non homogène après coloration. 
-Normoblaste basophile
-L'hémoglobine commence à être synthétisée dans l'érythroblaste basophile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Normoblaste</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Normoblaste</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pronormoblaste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le noyau apparaît rond ou ovale et occupe environ les 8/10e de la cellule. On observe un fin réseau chromatinien pourpre après coloration au MGG. Le cytoplasme a un diamètre compris entre 20 et 25 µm et apparaît très basophile, non homogène après coloration. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Normoblaste</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Normoblaste</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Normoblaste basophile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hémoglobine commence à être synthétisée dans l'érythroblaste basophile.
 La chromatine du noyau devient plus grossière et se dispose en mottes, les nucléoles ne sont pas présents. Le cytoplasme réduit son diamètre pour atteindre entre 16 et 18 µm. La taille du noyau diminue plus rapidement que celle du cytoplasme. À la coloration MGG, le cytoplasme prend une couleur bleue uniforme. 
-Normoblaste polychromatique
-Ou normoblaste polychromatophile.
-Normoblaste orthochromatique
-L'érythroblaste orthochromatique a une coloration cytoplasmique proche de celle de l'érythrocyte mature.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Normoblaste</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Normoblaste</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Normoblaste polychromatique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ou normoblaste polychromatophile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Normoblaste</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Normoblaste</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Normoblaste orthochromatique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'érythroblaste orthochromatique a une coloration cytoplasmique proche de celle de l'érythrocyte mature.
 </t>
         </is>
       </c>
